--- a/data/open-baltimore/raw/source.xlsx
+++ b/data/open-baltimore/raw/source.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>BPD_Part_1_Victim_Based_Crime_Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,23 +29,44 @@
   <si>
     <t>remarks</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/Public-Safety/BPD-Arrests/3i3v-ibrt</t>
+  </si>
+  <si>
+    <t>BPD_Arrests.csv</t>
+  </si>
+  <si>
+    <t>BPD_Part_1_Victim_Based_Crime_Data.csv</t>
+  </si>
+  <si>
+    <t>BPD_Arrests_2012.csv</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/Public-Safety/BPD-Arrests-2012/srkw-68js</t>
+  </si>
+  <si>
+    <t>Gun_Offenders.csv</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/Public-Safety/Gun-Offenders/aivj-4x23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -78,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -94,7 +112,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -169,6 +187,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -204,6 +239,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,36 +431,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="1" max="1" width="38.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/open-baltimore/raw/source.xlsx
+++ b/data/open-baltimore/raw/source.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,23 +50,83 @@
   </si>
   <si>
     <t>https://data.baltimorecity.gov/Public-Safety/Gun-Offenders/aivj-4x23</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/City-Services/311-Customer-Service-Requests/9agw-sxsr</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/Public-Safety/911-Police-Calls-for-Service/xviu-ezkt</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/Housing-Development/Vacants-to-Value-Middle-Market/2nea-5tsk</t>
+  </si>
+  <si>
+    <t>Vacants_to_Value_-_Middle_Market.csv</t>
+  </si>
+  <si>
+    <t>Vacant_Buildings.csv</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/Housing-Development/Vacant-Buildings/qqcv-ihn5</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/Housing-Development/Vacants-to-Value-Distressed-Market/f8a8-4x84</t>
+  </si>
+  <si>
+    <t>Vacants_to_Value_-__Distressed_Market.csv</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/City-Services/Liquor-Licenses/xv8d-bwgi</t>
+  </si>
+  <si>
+    <t>Liquor_Licenses.csv</t>
+  </si>
+  <si>
+    <t>311_Customer_Service_Requests.csv</t>
+  </si>
+  <si>
+    <t>911_Police_Calls_for_Service.csv</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/Financial/Real-Property-Taxes/27w9-urtv</t>
+  </si>
+  <si>
+    <t>Real_Property_Taxes.csv</t>
+  </si>
+  <si>
+    <t>Housing_Permits.csv</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/Housing-Development/Housing-Permits/fesm-tgxf</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/Transportation/DOT-Towing/k78j-azhn</t>
+  </si>
+  <si>
+    <t>DOT_Towing.csv</t>
+  </si>
+  <si>
+    <t>ECB_Citations.csv</t>
+  </si>
+  <si>
+    <t>https://data.baltimorecity.gov/City-Services/ECB-Citations/ywty-nmtg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -96,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -112,7 +172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -187,23 +247,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -239,23 +282,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,20 +457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.265625" customWidth="1"/>
+    <col min="1" max="1" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -463,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -471,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -479,12 +505,92 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
